--- a/banco_expressao.xlsx
+++ b/banco_expressao.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASDOMINGOSLEAOGOM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASDOMINGOSLEAOGOM\Desktop\Projetos\Tradutop-Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>id_giria</t>
-  </si>
-  <si>
     <t>titulo</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>id_expressao</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
@@ -455,50 +455,50 @@
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/banco_expressao.xlsx
+++ b/banco_expressao.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>titulo</t>
   </si>
@@ -42,25 +42,166 @@
     <t>1</t>
   </si>
   <si>
-    <t>All mouth and no trousers</t>
-  </si>
-  <si>
-    <t>Toda a boca e sem calças.</t>
-  </si>
-  <si>
-    <t>Todas as conversas, sem ação.</t>
-  </si>
-  <si>
-    <t>Todas as Dont listen to him. Hes all mouth and no trousers, sem ação.</t>
-  </si>
-  <si>
-    <t>Não o escute. Ele é toda boca e sem calças.</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>id_expressao</t>
+  </si>
+  <si>
+    <t>The best of both worlds</t>
+  </si>
+  <si>
+    <t>O melhor de dois mundos</t>
+  </si>
+  <si>
+    <t>o melhor de duas oportunidades diferentes ao mesmo tempo</t>
+  </si>
+  <si>
+    <t>By working part-time and looking after her kids two days a week she managed to get the best of both worlds</t>
+  </si>
+  <si>
+    <t>Trabalhando meio período e cuidando dos filhos duas vezes por semana, ela conseguiu ter o melhor dos dois mundos.</t>
+  </si>
+  <si>
+    <t>Speak of the devil</t>
+  </si>
+  <si>
+    <t>Falando no diabo</t>
+  </si>
+  <si>
+    <t>é igual ao que dizemos em português, “falar do diabo”. Significa que você está falando de alguém e esta pessoa aparece naquela hora.</t>
+  </si>
+  <si>
+    <t>Hi, Tom, speak of the devil, I was just telling Sara about your new car.</t>
+  </si>
+  <si>
+    <t>Oi, Tom! Falando do diabo, eu estava contando para a Sara sobre seu carro novo.</t>
+  </si>
+  <si>
+    <t>‘See eye to eye</t>
+  </si>
+  <si>
+    <t>concordar com alguém.</t>
+  </si>
+  <si>
+    <t>They finally saw eye to eye on the business deal.</t>
+  </si>
+  <si>
+    <t>Eles finalmente chegaram a um acordo para o negócio.</t>
+  </si>
+  <si>
+    <t>Once in a blue moon</t>
+  </si>
+  <si>
+    <t>Uma vez em uma lua azul</t>
+  </si>
+  <si>
+    <t>algo raríssimo</t>
+  </si>
+  <si>
+    <t>I only go to the cinema once in a blue moon.</t>
+  </si>
+  <si>
+    <t>Vou ao cinema de vez em nunca.</t>
+  </si>
+  <si>
+    <t>When pigs fly</t>
+  </si>
+  <si>
+    <t>Quando porcos voarem</t>
+  </si>
+  <si>
+    <t>algo que nunca vai acontecer.</t>
+  </si>
+  <si>
+    <t>When pigs fly she’ll tidy up her room.</t>
+  </si>
+  <si>
+    <t>No dia de São Nunca, ela vai arrumar o quarto dela.</t>
+  </si>
+  <si>
+    <t>To cost an arm and a leg</t>
+  </si>
+  <si>
+    <t>Para custar um braço e uma perna</t>
+  </si>
+  <si>
+    <t>algo muito caro, que custa os olhos da cara.</t>
+  </si>
+  <si>
+    <t>Fuel these days costs an arm and a leg</t>
+  </si>
+  <si>
+    <t>Combustível ultimamente custa os olhos da cara.</t>
+  </si>
+  <si>
+    <t>A piece of cake</t>
+  </si>
+  <si>
+    <t>Um pedaço de bolo</t>
+  </si>
+  <si>
+    <t>algo muito fácil</t>
+  </si>
+  <si>
+    <t>The English test was a piece of cake</t>
+  </si>
+  <si>
+    <t>A prova de inglês foi moleza.</t>
+  </si>
+  <si>
+    <t>Let the cat out of the bag</t>
+  </si>
+  <si>
+    <t>Deixe o gato sair da bolsa</t>
+  </si>
+  <si>
+    <t>revelar um segredo acidentalmente, deixar escapar.</t>
+  </si>
+  <si>
+    <t>I let the cat out of the bag about their wedding plans.</t>
+  </si>
+  <si>
+    <t>Ver olho no olho</t>
+  </si>
+  <si>
+    <t>Deixei escapar os planos de casamento deles.</t>
+  </si>
+  <si>
+    <t>To feel under the weather</t>
+  </si>
+  <si>
+    <t>Sentir-se sob o clima</t>
+  </si>
+  <si>
+    <t>sentir-se mal</t>
+  </si>
+  <si>
+    <t>I’m really feeling under the weather today; I have a terrible cold.</t>
+  </si>
+  <si>
+    <t>Estou me sentindo mal hoje; estou com um resfriado fortíssimo.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -438,26 +579,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -483,25 +624,210 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>